--- a/src/main/resources/datatest/AcconutCheckURL.xlsx
+++ b/src/main/resources/datatest/AcconutCheckURL.xlsx
@@ -1393,8 +1393,8 @@
   </sheetPr>
   <dimension ref="A1:F49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6296296296296" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="5"/>
@@ -2024,7 +2024,7 @@
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="F2" r:id="rId1" display="https://saigon-business.erp.meu-solutions.com/dang-nhap"/>
-    <hyperlink ref="F8" r:id="rId2" display="https://saigon-business.erp.meu-solutions.com/gioi-thieu"/>
+    <hyperlink ref="F8" r:id="rId2" display="https://saigon-business.erp.meu-solutions.com/gioi-thieu" tooltip="https://saigon-business.erp.meu-solutions.com/gioi-thieu"/>
     <hyperlink ref="F10" r:id="rId1" display="https://saigon-business.erp.meu-solutions.com/dang-nhap"/>
     <hyperlink ref="F16" r:id="rId2" display="https://saigon-business.erp.meu-solutions.com/9th-monthly-b2b"/>
     <hyperlink ref="F18" r:id="rId1" display="https://saigon-business.erp.meu-solutions.com/dang-nhap"/>
